--- a/股票交易.xlsx
+++ b/股票交易.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\21\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\Documents\GitHub\web\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>手續費</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>2019.04.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試一下</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -811,6 +815,11 @@
         <v>182</v>
       </c>
     </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
